--- a/data/metaanalysis-data-sources.xlsx
+++ b/data/metaanalysis-data-sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17240" yWindow="0" windowWidth="21460" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -928,9 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -943,6 +940,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="107" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="117">
@@ -1395,95 +1395,96 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="11" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="30">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="30">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" ht="60">
       <c r="A3" s="1" t="s">
@@ -1537,7 +1538,7 @@
       <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>42716</v>
       </c>
     </row>
@@ -1593,7 +1594,7 @@
       <c r="Q4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>42716</v>
       </c>
     </row>
@@ -1649,7 +1650,7 @@
       <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>42716</v>
       </c>
     </row>
@@ -1705,7 +1706,7 @@
       <c r="Q6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>42716</v>
       </c>
     </row>
@@ -1761,7 +1762,7 @@
       <c r="Q7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>42716</v>
       </c>
     </row>
@@ -1817,7 +1818,7 @@
       <c r="Q8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>42716</v>
       </c>
     </row>
@@ -1873,7 +1874,7 @@
       <c r="Q9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>42207</v>
       </c>
     </row>
@@ -1929,7 +1930,7 @@
       <c r="Q10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>42207</v>
       </c>
     </row>
@@ -1985,7 +1986,7 @@
       <c r="Q11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>42207</v>
       </c>
     </row>
@@ -2041,7 +2042,7 @@
       <c r="Q12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>42207</v>
       </c>
     </row>
@@ -2097,7 +2098,7 @@
       <c r="Q13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2153,7 +2154,7 @@
       <c r="Q14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2164,7 +2165,7 @@
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2209,7 +2210,7 @@
       <c r="Q15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2265,7 +2266,7 @@
       <c r="Q16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2321,7 +2322,7 @@
       <c r="Q17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2377,7 +2378,7 @@
       <c r="Q18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2433,7 +2434,7 @@
       <c r="Q19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2444,7 +2445,7 @@
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2489,7 +2490,7 @@
       <c r="Q20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2545,7 +2546,7 @@
       <c r="Q21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2601,7 +2602,7 @@
       <c r="Q22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <v>41569</v>
       </c>
     </row>
@@ -2657,7 +2658,7 @@
       <c r="Q23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2713,7 +2714,7 @@
       <c r="Q24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2769,7 +2770,7 @@
       <c r="Q25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="4">
         <v>41983</v>
       </c>
     </row>
@@ -2822,14 +2823,14 @@
       <c r="P26" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="4">
         <v>41624</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="120">
+    <row r="27" spans="1:18" ht="105">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -2881,11 +2882,11 @@
       <c r="Q27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="120">
+    <row r="28" spans="1:18" ht="105">
       <c r="A28" s="1" t="s">
         <v>132</v>
       </c>
@@ -2937,11 +2938,11 @@
       <c r="Q28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="120">
+    <row r="29" spans="1:18" ht="105">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2993,11 +2994,11 @@
       <c r="Q29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="210">
+    <row r="30" spans="1:18" ht="165">
       <c r="A30" s="1" t="s">
         <v>132</v>
       </c>
@@ -3049,11 +3050,11 @@
       <c r="Q30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="210">
+    <row r="31" spans="1:18" ht="165">
       <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
@@ -3105,11 +3106,11 @@
       <c r="Q31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="210">
+    <row r="32" spans="1:18" ht="165">
       <c r="A32" s="1" t="s">
         <v>132</v>
       </c>
@@ -3161,11 +3162,11 @@
       <c r="Q32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="210">
+    <row r="33" spans="1:18" ht="165">
       <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
@@ -3217,11 +3218,11 @@
       <c r="Q33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="210">
+    <row r="34" spans="1:18" ht="165">
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
@@ -3273,11 +3274,11 @@
       <c r="Q34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="210">
+    <row r="35" spans="1:18" ht="180">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
@@ -3329,11 +3330,11 @@
       <c r="Q35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="210">
+    <row r="36" spans="1:18" ht="180">
       <c r="A36" s="1" t="s">
         <v>132</v>
       </c>
@@ -3385,11 +3386,11 @@
       <c r="Q36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="210">
+    <row r="37" spans="1:18" ht="180">
       <c r="A37" s="1" t="s">
         <v>132</v>
       </c>
@@ -3441,11 +3442,11 @@
       <c r="Q37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="210">
+    <row r="38" spans="1:18" ht="180">
       <c r="A38" s="1" t="s">
         <v>132</v>
       </c>
@@ -3497,11 +3498,11 @@
       <c r="Q38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="210">
+    <row r="39" spans="1:18" ht="180">
       <c r="A39" s="1" t="s">
         <v>132</v>
       </c>
@@ -3511,22 +3512,22 @@
       <c r="C39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="G39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3553,11 +3554,11 @@
       <c r="Q39" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="195">
+    <row r="40" spans="1:18" ht="180">
       <c r="A40" s="1" t="s">
         <v>132</v>
       </c>
@@ -3567,22 +3568,22 @@
       <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="7" t="s">
+      <c r="G40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3609,11 +3610,11 @@
       <c r="Q40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="195">
+    <row r="41" spans="1:18" ht="180">
       <c r="A41" s="1" t="s">
         <v>132</v>
       </c>
@@ -3623,22 +3624,22 @@
       <c r="C41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="G41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3665,11 +3666,11 @@
       <c r="Q41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="180">
+    <row r="42" spans="1:18" ht="165">
       <c r="A42" s="1" t="s">
         <v>132</v>
       </c>
@@ -3679,22 +3680,22 @@
       <c r="C42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="G42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -3721,11 +3722,11 @@
       <c r="Q42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="180">
+    <row r="43" spans="1:18" ht="165">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -3735,22 +3736,22 @@
       <c r="C43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="G43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -3777,11 +3778,11 @@
       <c r="Q43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="180">
+    <row r="44" spans="1:18" ht="165">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3791,22 +3792,22 @@
       <c r="C44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="7" t="s">
+      <c r="G44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -3833,11 +3834,11 @@
       <c r="Q44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="180">
+    <row r="45" spans="1:18" ht="150">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -3847,22 +3848,22 @@
       <c r="C45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="G45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -3889,11 +3890,11 @@
       <c r="Q45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="180">
+    <row r="46" spans="1:18" ht="150">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -3903,22 +3904,22 @@
       <c r="C46" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="G46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3945,11 +3946,11 @@
       <c r="Q46" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="4">
         <v>42557</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="180">
+    <row r="47" spans="1:18" ht="150">
       <c r="A47" s="1" t="s">
         <v>132</v>
       </c>
@@ -3959,22 +3960,22 @@
       <c r="C47" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="G47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -4001,7 +4002,7 @@
       <c r="Q47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="4">
         <v>42557</v>
       </c>
     </row>
